--- a/平成31年度/01_参加申込関連/09.21-22_第11回新潟カップミニバスケットボール大会/新潟カップ参加申し込み書_栃尾ウィザーズ.xlsx
+++ b/平成31年度/01_参加申込関連/09.21-22_第11回新潟カップミニバスケットボール大会/新潟カップ参加申し込み書_栃尾ウィザーズ.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -407,6 +407,14 @@
   </si>
   <si>
     <t>栃尾東小学校</t>
+  </si>
+  <si>
+    <t>諸橋　裕哉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川上　剛</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -974,6 +982,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
@@ -983,6 +1057,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -992,11 +1081,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,15 +1122,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1036,39 +1137,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,68 +1152,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,19 +1544,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
@@ -1561,19 +1569,19 @@
       <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="7"/>
@@ -1586,21 +1594,21 @@
       <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -1613,23 +1621,23 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1642,21 +1650,21 @@
       <c r="V4" s="12"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="81"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1669,23 +1677,23 @@
       <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="69" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="71"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1698,25 +1706,25 @@
       <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="68" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="70"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="88"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1729,20 +1737,20 @@
       <c r="V7" s="12"/>
     </row>
     <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
       <c r="I8" s="55" t="s">
         <v>41</v>
       </c>
@@ -1760,25 +1768,25 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="30" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1791,25 +1799,25 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="60" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="52" t="s">
+      <c r="G10" s="70"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1825,26 +1833,26 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="56" t="s">
+      <c r="G11" s="58"/>
+      <c r="H11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56" t="s">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="56"/>
+      <c r="K11" s="66"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
     </row>
@@ -1852,11 +1860,11 @@
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="3">
         <v>4</v>
       </c>
@@ -1872,10 +1880,10 @@
       <c r="I12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="46"/>
+      <c r="K12" s="49"/>
       <c r="M12" s="4"/>
       <c r="N12" s="13"/>
       <c r="O12" s="12"/>
@@ -1891,11 +1899,11 @@
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="3">
         <v>5</v>
       </c>
@@ -1911,10 +1919,10 @@
       <c r="I13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="32"/>
       <c r="M13" s="4"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -1930,11 +1938,11 @@
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="3">
         <v>6</v>
       </c>
@@ -1950,10 +1958,10 @@
       <c r="I14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="44"/>
+      <c r="K14" s="32"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
@@ -1961,11 +1969,11 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="3">
         <v>7</v>
       </c>
@@ -1981,10 +1989,10 @@
       <c r="I15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="46"/>
+      <c r="K15" s="49"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
@@ -1992,11 +2000,11 @@
       <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="3">
         <v>8</v>
       </c>
@@ -2012,10 +2020,10 @@
       <c r="I16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="46"/>
+      <c r="K16" s="49"/>
       <c r="M16" s="4"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -2031,11 +2039,11 @@
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="3">
         <v>9</v>
       </c>
@@ -2051,10 +2059,10 @@
       <c r="I17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="46"/>
+      <c r="K17" s="49"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
     </row>
@@ -2062,11 +2070,11 @@
       <c r="A18" s="3">
         <v>7</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="3">
         <v>10</v>
       </c>
@@ -2082,10 +2090,10 @@
       <c r="I18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="44"/>
+      <c r="K18" s="32"/>
       <c r="M18" s="4"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -2101,11 +2109,11 @@
       <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="3">
         <v>11</v>
       </c>
@@ -2121,10 +2129,10 @@
       <c r="I19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="32"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
     </row>
@@ -2132,11 +2140,11 @@
       <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="3">
         <v>12</v>
       </c>
@@ -2152,10 +2160,10 @@
       <c r="I20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="32"/>
       <c r="M20" s="4"/>
       <c r="N20" s="13"/>
       <c r="O20" s="12"/>
@@ -2171,11 +2179,11 @@
       <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="3">
         <v>13</v>
       </c>
@@ -2191,10 +2199,10 @@
       <c r="I21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="46"/>
+      <c r="K21" s="49"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
     </row>
@@ -2202,11 +2210,11 @@
       <c r="A22" s="3">
         <v>11</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="3">
         <v>14</v>
       </c>
@@ -2222,10 +2230,10 @@
       <c r="I22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="44"/>
+      <c r="K22" s="32"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
     </row>
@@ -2233,11 +2241,11 @@
       <c r="A23" s="3">
         <v>12</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="3">
         <v>15</v>
       </c>
@@ -2253,10 +2261,10 @@
       <c r="I23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="46"/>
+      <c r="K23" s="49"/>
       <c r="M23" s="4"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -2272,11 +2280,11 @@
       <c r="A24" s="3">
         <v>13</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="3">
         <v>16</v>
       </c>
@@ -2292,10 +2300,10 @@
       <c r="I24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="32"/>
       <c r="M24" s="4"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -2311,11 +2319,11 @@
       <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="3">
         <v>17</v>
       </c>
@@ -2331,10 +2339,10 @@
       <c r="I25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="44"/>
+      <c r="K25" s="32"/>
       <c r="M25" s="4"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -2350,11 +2358,11 @@
       <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="3">
         <v>18</v>
       </c>
@@ -2370,10 +2378,10 @@
       <c r="I26" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="32"/>
       <c r="M26" s="4"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -2457,16 +2465,18 @@
       <c r="B30" s="28">
         <v>1</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="C30" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="28">
         <v>6</v>
       </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="8"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -2484,16 +2494,18 @@
       <c r="B31" s="28">
         <v>2</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
+      <c r="C31" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="28">
         <v>7</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2501,16 +2513,16 @@
       <c r="B32" s="28">
         <v>3</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="28">
         <v>8</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2518,16 +2530,16 @@
       <c r="B33" s="28">
         <v>4</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="28">
         <v>9</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2535,16 +2547,16 @@
       <c r="B34" s="28">
         <v>5</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="28">
         <v>10</v>
       </c>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
       <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -2624,51 +2636,51 @@
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="44" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="85"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
     </row>
     <row r="43" spans="1:11" ht="18" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="88"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2694,11 +2706,62 @@
     <row r="65" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="E41:K41"/>
     <mergeCell ref="G30:J30"/>
@@ -2715,62 +2778,11 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="C43:K43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
